--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N2">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O2">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P2">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q2">
-        <v>8047.801057058928</v>
+        <v>120.144627237946</v>
       </c>
       <c r="R2">
-        <v>72430.20951353035</v>
+        <v>1081.301645141514</v>
       </c>
       <c r="S2">
-        <v>0.3087414209298525</v>
+        <v>0.115988771876085</v>
       </c>
       <c r="T2">
-        <v>0.3087414209298526</v>
+        <v>0.1159887718760851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.344809</v>
       </c>
       <c r="O3">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P3">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q3">
-        <v>64.74055843333267</v>
+        <v>76.26661166938769</v>
       </c>
       <c r="R3">
-        <v>582.665025899994</v>
+        <v>686.3995050244891</v>
       </c>
       <c r="S3">
-        <v>0.002483671236500959</v>
+        <v>0.07362851611469035</v>
       </c>
       <c r="T3">
-        <v>0.002483671236500959</v>
+        <v>0.07362851611469036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.210064</v>
       </c>
       <c r="O4">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P4">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q4">
-        <v>143.850715701536</v>
+        <v>169.461106580816</v>
       </c>
       <c r="R4">
-        <v>1294.656441313824</v>
+        <v>1525.149959227344</v>
       </c>
       <c r="S4">
-        <v>0.005518609872756856</v>
+        <v>0.163599372564063</v>
       </c>
       <c r="T4">
-        <v>0.005518609872756857</v>
+        <v>0.163599372564063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N5">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O5">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P5">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q5">
-        <v>14851.03287649512</v>
+        <v>188.202665822718</v>
       </c>
       <c r="R5">
-        <v>133659.2958884561</v>
+        <v>1693.823992404462</v>
       </c>
       <c r="S5">
-        <v>0.5697368709858111</v>
+        <v>0.1816926530501381</v>
       </c>
       <c r="T5">
-        <v>0.5697368709858113</v>
+        <v>0.1816926530501382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.344809</v>
       </c>
       <c r="O6">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P6">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q6">
         <v>119.469176104043</v>
@@ -818,10 +818,10 @@
         <v>1075.222584936387</v>
       </c>
       <c r="S6">
-        <v>0.004583249874862176</v>
+        <v>0.1153366848932143</v>
       </c>
       <c r="T6">
-        <v>0.004583249874862177</v>
+        <v>0.1153366848932143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.210064</v>
       </c>
       <c r="O7">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P7">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q7">
         <v>265.455332834928</v>
@@ -880,10 +880,10 @@
         <v>2389.097995514352</v>
       </c>
       <c r="S7">
-        <v>0.01018378263475785</v>
+        <v>0.2562731164207744</v>
       </c>
       <c r="T7">
-        <v>0.01018378263475785</v>
+        <v>0.2562731164207745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.15988866666667</v>
+        <v>1.231278</v>
       </c>
       <c r="N8">
-        <v>291.479666</v>
+        <v>3.693834</v>
       </c>
       <c r="O8">
-        <v>0.974735784617843</v>
+        <v>0.3283785416403858</v>
       </c>
       <c r="P8">
-        <v>0.9747357846178432</v>
+        <v>0.3283785416403859</v>
       </c>
       <c r="Q8">
-        <v>2509.093691365916</v>
+        <v>31.796988495084</v>
       </c>
       <c r="R8">
-        <v>22581.84322229325</v>
+        <v>286.172896455756</v>
       </c>
       <c r="S8">
-        <v>0.09625749270217943</v>
+        <v>0.03069711671416268</v>
       </c>
       <c r="T8">
-        <v>0.09625749270217945</v>
+        <v>0.03069711671416269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.344809</v>
       </c>
       <c r="O9">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="P9">
-        <v>0.007841264784466921</v>
+        <v>0.2084514246837437</v>
       </c>
       <c r="Q9">
         <v>20.184411317934</v>
@@ -1004,10 +1004,10 @@
         <v>181.659701861406</v>
       </c>
       <c r="S9">
-        <v>0.0007743436731037857</v>
+        <v>0.01948622367583901</v>
       </c>
       <c r="T9">
-        <v>0.0007743436731037859</v>
+        <v>0.01948622367583901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.210064</v>
       </c>
       <c r="O10">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="P10">
-        <v>0.01742295059768999</v>
+        <v>0.4631700336758705</v>
       </c>
       <c r="Q10">
         <v>44.848887380064</v>
@@ -1066,10 +1066,10 @@
         <v>403.639986420576</v>
       </c>
       <c r="S10">
-        <v>0.001720558090175277</v>
+        <v>0.04329754469103303</v>
       </c>
       <c r="T10">
-        <v>0.001720558090175278</v>
+        <v>0.04329754469103304</v>
       </c>
     </row>
   </sheetData>
